--- a/Basededados/PORTUGAL_S1.xlsx
+++ b/Basededados/PORTUGAL_S1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB126"/>
+  <dimension ref="A1:AB127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gols_casa_FT</t>
+          <t>FT_Goals_H</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Gols_Fora_FT</t>
+          <t>FT_Goals_A</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -551,17 +551,17 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>B365H</t>
+          <t>FT_Odds_H</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>B365D</t>
+          <t>FT_Odds_D</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>B365A</t>
+          <t>FT_Odds_A</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -13073,6 +13073,106 @@
       </c>
       <c r="AB126" t="n">
         <v>2.05</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Sp Braga</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>4</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>3</v>
+      </c>
+      <c r="M127" t="n">
+        <v>26</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>13</v>
+      </c>
+      <c r="P127" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>14</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1</v>
+      </c>
+      <c r="S127" t="n">
+        <v>6</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1</v>
+      </c>
+      <c r="U127" t="n">
+        <v>1</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0</v>
+      </c>
+      <c r="X127" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>

--- a/Basededados/PORTUGAL_S1.xlsx
+++ b/Basededados/PORTUGAL_S1.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Casa</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Fora</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
